--- a/Whiskas.xlsx
+++ b/Whiskas.xlsx
@@ -686,7 +686,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
